--- a/data/JAM/10036.xlsx
+++ b/data/JAM/10036.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" state="visible" r:id="rId2"/>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">r1998</t>
   </si>
   <si>
-    <t xml:space="preserve">%dR_c</t>
+    <t xml:space="preserve">%dR_u</t>
   </si>
   <si>
     <t xml:space="preserve">e140x</t>
@@ -229,14 +229,11 @@
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -365,7 +362,7 @@
         <v>0.310160132525621</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,7 +427,7 @@
         <v>0.310160132525621</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,7 +492,7 @@
         <v>0.310160132525621</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +557,7 @@
         <v>0.348619688007481</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,7 +622,7 @@
         <v>0.348619688007481</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,7 +687,7 @@
         <v>0.348619688007481</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +752,7 @@
         <v>0.186797005789584</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,7 +817,7 @@
         <v>0.186797005789584</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,7 +882,7 @@
         <v>0.186797005789584</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +947,7 @@
         <v>0.186797005789584</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1012,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,7 +1077,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1142,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1207,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,7 +1272,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,7 +1337,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1402,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,7 +1467,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1532,7 @@
         <v>0.155488360308516</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
